--- a/data/income_statement/1digit/size/B_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/B_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>B-Mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>B-Mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1112 +841,1257 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>312872.42696</v>
+        <v>377957.3857700001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>380816.42602</v>
+        <v>443932.1986199999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>397131.71852</v>
+        <v>463231.73208</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>362330.8480500001</v>
+        <v>446906.11133</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>361685.4553</v>
+        <v>462111.1205899999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>468761.6425899999</v>
+        <v>587715.27195</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>337599.27502</v>
+        <v>475060.83506</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>380571.6043</v>
+        <v>545991.57885</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>344599.44446</v>
+        <v>516246.1053</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1016968.03662</v>
+        <v>1313632.91917</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1110525.41022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1577126.04729</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1428737.562</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>280273.59833</v>
+        <v>334044.51294</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>332084.59112</v>
+        <v>385057.65038</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>333255.3091700001</v>
+        <v>388496.79096</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>323476.22921</v>
+        <v>397955.2786100001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>321590.0451400001</v>
+        <v>407614.55444</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>411945.2548100001</v>
+        <v>513417.95694</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>285681.29819</v>
+        <v>401898.02603</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>334400.38637</v>
+        <v>472369.34675</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>294336.6965099999</v>
+        <v>438111.81921</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>867526.452</v>
+        <v>1122438.73056</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>890904.18587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1303991.83307</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1155875.745</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>22954.30691</v>
+        <v>28427.11353</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>36947.97543999999</v>
+        <v>40451.63795</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>51567.88576</v>
+        <v>55880.44037</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>27497.97461</v>
+        <v>32247.56193</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>28370.37119</v>
+        <v>34868.39664</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>43094.08294</v>
+        <v>50674.91781</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>37372.44101</v>
+        <v>47478.53</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>27460.24032</v>
+        <v>36038.60518</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>32011.44377</v>
+        <v>41417.61909</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>111997.24518</v>
+        <v>133300.5665</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>170776.44569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>192745.26906</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>190751.898</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9644.521720000001</v>
+        <v>15485.7593</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11783.85946</v>
+        <v>18422.91029</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>12308.52359</v>
+        <v>18854.50075</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11356.64423</v>
+        <v>16703.27079</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11725.03897</v>
+        <v>19628.16951</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>13722.30484</v>
+        <v>23622.3972</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>14545.53582</v>
+        <v>25684.27903</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>18710.97761</v>
+        <v>37583.62692</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>18251.30418</v>
+        <v>36716.667</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>37444.33944</v>
+        <v>57893.62210999998</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>48844.77866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>80388.94516</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>82109.91899999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1017.19881</v>
+        <v>1384.53204</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1457.00658</v>
+        <v>2199.37977</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1543.49198</v>
+        <v>1915.27521</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>628.78234</v>
+        <v>1546.05838</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>887.57987</v>
+        <v>3637.06936</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1413.56107</v>
+        <v>2136.97719</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1203.89764</v>
+        <v>2196.90027</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1600.61913</v>
+        <v>2440.38135</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1299.42424</v>
+        <v>2365.46001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4818.59277</v>
+        <v>7998.11325</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4522.804190000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11823.093</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22685.833</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>667.9854099999999</v>
+        <v>1002.77957</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1235.25862</v>
+        <v>1947.63687</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1430.73868</v>
+        <v>1740.21447</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>433.94906</v>
+        <v>1314.17627</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>622.87639</v>
+        <v>880.99388</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1099.80694</v>
+        <v>1795.20417</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1014.02466</v>
+        <v>1919.3941</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1498.50011</v>
+        <v>2055.41696</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>280.08951</v>
+        <v>1135.93861</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3105.75774</v>
+        <v>5416.01859</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3739.71692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10535.21026</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>18644.577</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>229.24166</v>
+        <v>234.1873</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>111.61083</v>
+        <v>125.96855</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>22.01098</v>
+        <v>41.35575</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>73.55261</v>
+        <v>85.77702000000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>246.12213</v>
+        <v>289.5403</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>127.22008</v>
+        <v>153.05525</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>27.68172999999999</v>
+        <v>29.22003</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>50.49847999999999</v>
+        <v>82.77824</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7.162280000000001</v>
+        <v>22.11762</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>93.63423000000002</v>
+        <v>440.84989</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>528.41643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>592.23588</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>119.97174</v>
+        <v>147.56517</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>110.13713</v>
+        <v>125.77435</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>90.74231999999999</v>
+        <v>133.70499</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>121.28067</v>
+        <v>146.10509</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>18.58135</v>
+        <v>2466.53518</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>186.53405</v>
+        <v>188.71777</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>162.19125</v>
+        <v>248.28614</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>51.62054</v>
+        <v>302.18615</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1012.17245</v>
+        <v>1207.40378</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1619.2008</v>
+        <v>2141.24477</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>254.67084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>695.6468600000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3764.347</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>311855.22815</v>
+        <v>376572.85373</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>379359.41944</v>
+        <v>441732.81885</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>395588.22654</v>
+        <v>461316.45687</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>361702.0657100001</v>
+        <v>445360.05295</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>360797.87543</v>
+        <v>458474.05123</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>467348.08152</v>
+        <v>585578.29476</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>336395.37738</v>
+        <v>472863.93479</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>378970.98517</v>
+        <v>543551.1975000001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>343300.02022</v>
+        <v>513880.64529</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1012149.44385</v>
+        <v>1305634.80592</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1106002.60603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1565302.95429</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1406051.729</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>232436.99539</v>
+        <v>308404.46956</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>291188.75836</v>
+        <v>345608.0692499999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>311292.0102899999</v>
+        <v>358008.08011</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>274513.90259</v>
+        <v>341812.70978</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>270983.53965</v>
+        <v>346973.13904</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>369897.89853</v>
+        <v>458310.38335</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>258177.53522</v>
+        <v>363407.22012</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>292849.7558</v>
+        <v>416770.29364</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>262348.0373800001</v>
+        <v>385610.90064</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>797846.2877100001</v>
+        <v>1019452.31551</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>884218.5691200001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1237833.66271</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1127554.778</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>89924.78246999999</v>
+        <v>113722.91059</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>93067.09692999999</v>
+        <v>114069.15834</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>102664.70827</v>
+        <v>123101.62868</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>89841.03153000001</v>
+        <v>126138.07754</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>94078.46602000001</v>
+        <v>135825.82896</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>71492.2613</v>
+        <v>118678.34875</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>73387.72172999999</v>
+        <v>124478.26294</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>70866.51639999999</v>
+        <v>130519.58841</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>74283.59633</v>
+        <v>131899.64605</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>250777.56667</v>
+        <v>342112.9126099999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>249438.29177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>404288.4321</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>412943.119</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>73655.85772999999</v>
+        <v>84862.86406000002</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>96643.63247</v>
+        <v>103954.6273</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>104500.23279</v>
+        <v>115420.38852</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>96114.78686000001</v>
+        <v>111893.47538</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>111608.35449</v>
+        <v>122851.46438</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>232397.77372</v>
+        <v>246874.62942</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>113085.27204</v>
+        <v>134211.38762</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>120665.10266</v>
+        <v>146444.66432</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>112097.39854</v>
+        <v>139111.04745</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>309952.61029</v>
+        <v>374223.51395</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>398758.7309199999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>490346.39306</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>417075.084</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>67657.87405</v>
+        <v>107795.64221</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>99565.59602999999</v>
+        <v>117894.07163</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>103516.74553</v>
+        <v>116924.45554</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>87394.91146999998</v>
+        <v>102401.82731</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>64219.956</v>
+        <v>86579.05097999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>64790.10497</v>
+        <v>87854.44587000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>66426.96986</v>
+        <v>94590.11426999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>97926.52889000002</v>
+        <v>131056.43354</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>71400.38103</v>
+        <v>104457.13187</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>219768.0197</v>
+        <v>280302.21668</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>213399.2327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>310320.37982</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>267654.636</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1198.48114</v>
+        <v>2023.0527</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1912.43293</v>
+        <v>9690.21198</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>610.3236999999999</v>
+        <v>2561.60737</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1163.17273</v>
+        <v>1379.32955</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1076.76314</v>
+        <v>1716.79472</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1217.75854</v>
+        <v>4902.95931</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5277.57159</v>
+        <v>10127.45529</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3391.607849999999</v>
+        <v>8749.607370000002</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4566.661480000001</v>
+        <v>10143.07527</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17348.09105</v>
+        <v>22813.67227</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>22622.31373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>32878.45773</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>29881.939</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>79418.23276</v>
+        <v>68168.38416999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>88170.66107999998</v>
+        <v>96124.7496</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>84296.21625</v>
+        <v>103308.37676</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>87188.16311999998</v>
+        <v>103547.34317</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>89814.33577999999</v>
+        <v>111500.91219</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>97450.18299000002</v>
+        <v>127267.91141</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>78217.84216</v>
+        <v>109456.71467</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>86121.22937</v>
+        <v>126780.90386</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>80951.98284</v>
+        <v>128269.74465</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>214303.15614</v>
+        <v>286182.49041</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>221784.03691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>327469.29158</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>278496.951</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>81303.11132999999</v>
+        <v>119613.71835</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>97240.78431999999</v>
+        <v>163833.79895</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>115114.01502</v>
+        <v>167882.56975</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>128924.40612</v>
+        <v>209625.13992</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>109376.29623</v>
+        <v>212168.67909</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>152994.9068</v>
+        <v>254348.90607</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>105105.37883</v>
+        <v>212217.14492</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>111916.25996</v>
+        <v>285765.91996</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>113002.62806</v>
+        <v>245189.64064</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>270843.4058300001</v>
+        <v>454491.79051</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>271904.40883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>510212.70837</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>520462.003</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>585.52332</v>
+        <v>1823.66448</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4354.73137</v>
+        <v>5641.100199999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>12257.49973</v>
+        <v>13640.82079</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1245.71896</v>
+        <v>10648.0771</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2450.525959999999</v>
+        <v>9064.903389999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>36535.45022</v>
+        <v>39849.95541</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1121.5879</v>
+        <v>3899.2309</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>646.39723</v>
+        <v>5313.963630000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1633.63599</v>
+        <v>4001.404179999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15431.74724</v>
+        <v>19862.89472</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5533.10383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8600.40166</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13794.328</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15177.85548</v>
+        <v>20145.71701</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>17451.07391</v>
+        <v>20433.57781</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>20967.21006</v>
+        <v>25463.86085</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>22289.1882</v>
+        <v>27528.96988</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>17151.84434</v>
+        <v>23548.21043</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15535.76143</v>
+        <v>19614.64856</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>12040.53855</v>
+        <v>21890.82129</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>16477.35772</v>
+        <v>25121.64008</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>14733.82543</v>
+        <v>22001.32246</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>46096.42373</v>
+        <v>61933.41576</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>40888.82983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60574.52725</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>59084.33</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>65539.73252999999</v>
+        <v>97644.33686</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>75434.97903999999</v>
+        <v>137759.12094</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>81889.30523</v>
+        <v>128777.88811</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>105389.49896</v>
+        <v>171448.09294</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>89773.92593</v>
+        <v>179555.56527</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>100923.69515</v>
+        <v>194884.3021</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>91943.25237999999</v>
+        <v>186427.09273</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>94792.50500999999</v>
+        <v>255330.31625</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>96635.16664</v>
+        <v>219186.914</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>209315.23486</v>
+        <v>372695.48003</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>225482.47517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>441037.77946</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>447583.345</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1884.87857</v>
+        <v>-51445.33418000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-9070.123240000001</v>
+        <v>-67709.04935000002</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-30817.79877</v>
+        <v>-64574.19299</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-41736.243</v>
+        <v>-106077.79675</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-19561.96045</v>
+        <v>-100667.7669</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-55544.72381</v>
+        <v>-127080.99466</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-26887.53667</v>
+        <v>-102760.43025</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-25795.03059</v>
+        <v>-158985.0161</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-32050.64522</v>
+        <v>-116919.89599</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-56540.24969</v>
+        <v>-168309.3001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-50120.37192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-182743.41679</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-241965.052</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5425.2543</v>
+        <v>95998.58</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5324.04138</v>
+        <v>366975.08413</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>7172.69909</v>
+        <v>762444.4942599999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6733.14357</v>
+        <v>597656.94761</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5361.32385</v>
+        <v>1233842.79061</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>11535.44682</v>
+        <v>789035.40521</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9503.97558</v>
+        <v>887378.73587</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7237.258949999999</v>
+        <v>4158266.71147</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6434.35148</v>
+        <v>3698434.60402</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>72578.01970999999</v>
+        <v>21061327.90314</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>53508.38376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7696468.89124</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>28261941.184</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1.45583</v>
+        <v>3010.26949</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>365.3516</v>
+        <v>4072.61126</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>307.15316</v>
+        <v>3956.62485</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>13790.39451</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3.68278</v>
+        <v>80701.82490000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>200000.84132</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>5468.544970000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>24.69032</v>
+        <v>251921.67601</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3.68278</v>
+        <v>8514.37876</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0.00361</v>
+        <v>40991.73447</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>270.07885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>19827.51357</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>55468.31</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>145.21609</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>165.78007</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>2283.30686</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>22.15</v>
+        <v>1560.02959</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14.86884</v>
+        <v>14891.83423</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>7797.807890000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1.03279</v>
+        <v>16163.55509</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>10</v>
+        <v>35193.37724</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>6541.167570000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>24.36104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>33278.72228</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>22.695</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>614.76504</v>
+        <v>5033.00725</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>573.0515399999999</v>
+        <v>4339.892390000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>580.7213399999999</v>
+        <v>5529.37087</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1271.1172</v>
+        <v>33801.30684999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>319.55278</v>
+        <v>8526.318029999997</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>592.3764100000002</v>
+        <v>32875.88625</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>741.2531599999999</v>
+        <v>31306.56812</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>784.3843699999999</v>
+        <v>44055.73713999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1099.91609</v>
+        <v>63095.7205</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5297.858419999999</v>
+        <v>97870.87659999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3852.22962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>111905.14936</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>86259.25900000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>56.86957999999999</v>
+        <v>108.24269</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>101.14552</v>
+        <v>539.21298</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>91.343</v>
+        <v>116.24755</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>8.870509999999999</v>
+        <v>11.54922</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>8.208600000000001</v>
+        <v>3135.58373</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>107.52575</v>
+        <v>173.71495</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3.8</v>
+        <v>3.80121</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0</v>
+        <v>291.89539</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>17.49004</v>
+        <v>68.6888</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0.5</v>
+        <v>323.94214</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1.55542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>390.60089</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40.893</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>52.8522</v>
+        <v>89.8522</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>22.99899</v>
+        <v>49.82372</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>32.65</v>
+        <v>494.4020199999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>9.89343</v>
+        <v>115.28269</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>484.9504499999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>12</v>
+        <v>455.68772</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>116.90882</v>
+        <v>772.8048500000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>17.10245</v>
+        <v>27598.53829</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1.54129</v>
+        <v>27563.07388</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>491.03989</v>
+        <v>27752.4281</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>775.49166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>27847.10823</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>27608.161</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>27.17007</v>
+        <v>73.72010999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>163.55673</v>
+        <v>372.10446</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25.69389</v>
+        <v>75.21924</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>26.59754000000001</v>
+        <v>76.73399000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4.54571</v>
+        <v>2327.00294</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9.917909999999999</v>
+        <v>257.1684</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33.06001000000001</v>
+        <v>1102.40684</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>25.38872</v>
+        <v>55465.38772999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>95.08122999999999</v>
+        <v>2503.40777</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>37.8204</v>
+        <v>3351.05239</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>49.2912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>25088.53638</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>18708.003</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1925.6128</v>
+        <v>79819.79025000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1996.42106</v>
+        <v>351983.6701</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3548.00284</v>
+        <v>543826.2662900001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2573.57232</v>
+        <v>291624.7308900001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1585.18051</v>
+        <v>804286.5271999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5146.4778</v>
+        <v>517477.13686</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3372.24492</v>
+        <v>824131.73792</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2910.82044</v>
+        <v>3739470.17527</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2612.06179</v>
+        <v>3532932.6708</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>35513.55076999999</v>
+        <v>20831138.17691</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10098.50283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6738723.37587</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>27978688.365</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2.80404</v>
+        <v>44.83042</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.39078</v>
+        <v>27.97976</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>18.29287</v>
@@ -2063,7 +2109,7 @@
         <v>5.337050000000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>1.63168</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>14</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>57.769</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>146.64389</v>
@@ -2093,7 +2144,7 @@
         <v>7.26994</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>7.140099999999999</v>
+        <v>8.6401</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>32.43563</v>
@@ -2108,256 +2159,291 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>0</v>
+        <v>405.85335</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>3.51054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>299.75021</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>665.8869999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2597.08085</v>
+        <v>7527.007610000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1939.72667</v>
+        <v>5262.610900000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2551.45253</v>
+        <v>208410.68111</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2826.51645</v>
+        <v>255937.06648</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3410.86337</v>
+        <v>332811.91367</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5619.126240000001</v>
+        <v>22869.98161</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5231.37162</v>
+        <v>16789.72702</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3473.83986</v>
+        <v>23298.11487</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2580.578260000001</v>
+        <v>28549.28627</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>31236.74011</v>
+        <v>52952.1651</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>38433.3626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>739108.13445</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>94421.842</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4689.39318</v>
+        <v>95366.38846</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>68038.83890999999</v>
+        <v>424618.60938</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5900.473319999999</v>
+        <v>598758.2714499999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5546.005129999999</v>
+        <v>370142.7163900001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8165.88849</v>
+        <v>3083897.12822</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>12696.26286</v>
+        <v>689463.1362599999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10426.28936</v>
+        <v>1228454.56344</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11299.66121</v>
+        <v>6540753.926689999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9938.984169999998</v>
+        <v>4866269.30393</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>102374.07251</v>
+        <v>26106921.9372</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>65755.81915000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8841541.37627</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>32374945.502</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>66.12231</v>
+        <v>2896.13228</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>13.71114</v>
+        <v>29.43790000000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>48.89505</v>
+        <v>56.83412999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>47.09108000000001</v>
+        <v>91.29769</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>55.17208</v>
+        <v>70.50073</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>30.20897</v>
+        <v>37.6121</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>34.21739</v>
+        <v>105.95626</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1230.37025</v>
+        <v>1283.86758</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>349.16031</v>
+        <v>11772.53027</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13722.07525</v>
+        <v>13758.0442</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>16229.83503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16231.10067</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4939.283</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>478.77489</v>
+        <v>574.0220899999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>42.1614</v>
+        <v>860.6768</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>470.46771</v>
+        <v>616.32681</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>150.71153</v>
+        <v>503.96805</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>634.73648</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1045.43853</v>
+        <v>1749.21758</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>46.79208999999999</v>
+        <v>9576.20643</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>217.93697</v>
+        <v>3824.15912</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>45.90532</v>
+        <v>599.7484499999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>516.88185</v>
+        <v>796.1708100000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>790.58574</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2628.945099999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>296.893</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>90.08627</v>
+        <v>167.95515</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>94.34</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>42.29375</v>
+        <v>42.29382</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0.00825</v>
+        <v>57.80529</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.4776</v>
+        <v>450.11157</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.80459</v>
+        <v>2436.07222</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.7348</v>
+        <v>128.29388</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>351.3856</v>
+        <v>403.93602</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>70.70001000000001</v>
+        <v>1192.4566</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>738.89381</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23.145</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1963.13119</v>
+        <v>83381.00549</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1995.22417</v>
+        <v>354342.47277</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3798.21631</v>
+        <v>539831.5432900001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3084.606249999999</v>
+        <v>301972.22209</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4735.61634</v>
+        <v>838530.1787200001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7651.7961</v>
+        <v>587765.93313</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6981.65872</v>
+        <v>1196915.61269</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5931.004099999999</v>
+        <v>5741589.32352</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5481.46908</v>
+        <v>3800553.157600001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>70261.1259</v>
+        <v>25464005.79065</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27518.34039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8764362.536940001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>31686770.637</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>10.59169</v>
+        <v>45.23657</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2.88567</v>
+        <v>14.49351</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>42.12714</v>
@@ -2369,13 +2455,13 @@
         <v>0.90906</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>0.25969</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>2.90546</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0.005</v>
@@ -2384,34 +2470,39 @@
         <v>109.14223</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>47.76542</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>56.712</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9.536580000000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>52.4286</v>
+        <v>52.70236</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>22.45362</v>
+        <v>40.45361999999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>1.01172</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>0.84746</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.001</v>
+        <v>158.48164</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>11.211</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2071.15025</v>
+        <v>8292.500300000002</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>65932.42793000001</v>
+        <v>69224.48604</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1476.01974</v>
+        <v>58128.69264</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2245.893520000001</v>
+        <v>67499.72877</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2738.97693</v>
+        <v>2244209.8442</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3968.01467</v>
+        <v>97474.04154000002</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3362.88536</v>
+        <v>21570.01254</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3920.34989</v>
+        <v>794053.6710100002</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3711.058860000001</v>
+        <v>1052939.92659</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17694.14727</v>
+        <v>627060.33271</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20478.16418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>57532.13433000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>682847.621</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4190.52723</v>
+        <v>10953.8733</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3394.74995</v>
+        <v>7689.816849999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2852.584060000001</v>
+        <v>14267.07362</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4238.04763</v>
+        <v>26708.31218</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3635.22452</v>
+        <v>43021.28997</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4627.637750000001</v>
+        <v>28466.85764</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3671.53548</v>
+        <v>59479.77884</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3716.72093</v>
+        <v>175273.75822</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2852.11253</v>
+        <v>202467.37216</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>19330.40975</v>
+        <v>311684.35995</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>16928.68818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>360241.89351</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>336306.109</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3868.07542</v>
+        <v>8299.189980000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3265.08524</v>
+        <v>7229.44886</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2535.12887</v>
+        <v>12580.11049</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4102.437480000001</v>
+        <v>25389.39946</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2721.02513</v>
+        <v>41391.13468</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4222.8547</v>
+        <v>27501.70769</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3569.51343</v>
+        <v>34502.49979</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3663.934670000001</v>
+        <v>40574.95434</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2784.42909</v>
+        <v>47070.55038</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>18491.07697</v>
+        <v>70029.91379999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>15801.72318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>81714.27412999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>85289.897</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>322.45181</v>
+        <v>2654.68332</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>129.66471</v>
+        <v>460.36799</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>317.45519</v>
+        <v>1686.96313</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>135.61015</v>
+        <v>1318.91272</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>914.1993900000001</v>
+        <v>1630.15529</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>404.78305</v>
+        <v>965.14995</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>102.02205</v>
+        <v>24977.27905</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>52.78626</v>
+        <v>134698.80388</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>67.68344</v>
+        <v>155396.82178</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>839.3327800000001</v>
+        <v>241654.44615</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1126.965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>278527.6193799999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>251016.212</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-5339.54468</v>
+        <v>-61767.01594</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-75179.67071999999</v>
+        <v>-133042.39145</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-32398.15706</v>
+        <v>84844.9562</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-44787.15219</v>
+        <v>94728.12229</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-26001.74961</v>
+        <v>-1993743.39448</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-61333.1776</v>
+        <v>-55975.58334999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-31481.38593</v>
+        <v>-503316.03666</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-33574.15378</v>
+        <v>-2716745.98954</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-38407.39044</v>
+        <v>-1487221.96806</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-105666.71224</v>
+        <v>-5525587.69411</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-79296.49549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1688057.79533</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-4691275.479</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5157.025310000001</v>
+        <v>11276.70043</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5154.095829999999</v>
+        <v>18693.02901</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9522.380450000001</v>
+        <v>39081.35539</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6242.5524</v>
+        <v>53193.08790000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6640.09784</v>
+        <v>37238.99751</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11087.24536</v>
+        <v>36036.52103</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5826.452420000001</v>
+        <v>31663.03289</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6283.17932</v>
+        <v>117250.52445</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>8491.789629999999</v>
+        <v>155482.47507</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>24556.36114999999</v>
+        <v>93956.51029000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>20280.86848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>79522.30715000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>85769.87699999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>80.63555000000001</v>
+        <v>123.01373</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>74.65197999999999</v>
+        <v>141.0831</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>93.50888999999999</v>
+        <v>257.66494</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>105.45279</v>
+        <v>300.7024699999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>392.12856</v>
+        <v>574.9252299999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>495.58666</v>
+        <v>735.47207</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0.50193</v>
+        <v>352.2256</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>55.60858</v>
+        <v>93.25156</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>969.2537199999999</v>
+        <v>1030.82931</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>18.79698</v>
+        <v>117.50239</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>47.5493</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>799.0191000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9071.239</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5076.389760000001</v>
+        <v>11153.6867</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5079.44385</v>
+        <v>18551.94591</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9428.871559999998</v>
+        <v>38823.69045</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6137.09961</v>
+        <v>52892.38543</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6247.969279999999</v>
+        <v>36664.07227999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10591.6587</v>
+        <v>35301.04896</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5825.95049</v>
+        <v>31310.80729</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6227.570740000001</v>
+        <v>117157.27289</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7522.535910000001</v>
+        <v>154451.64576</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24537.56417</v>
+        <v>93839.00790000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>20233.31918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>78723.28805</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>76698.63800000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8684.88407</v>
+        <v>24361.5141</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7721.90485</v>
+        <v>27054.39178</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>26651.09212</v>
+        <v>69578.98589</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>31176.11925</v>
+        <v>61194.97869</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13472.53635</v>
+        <v>29369.59668</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>36865.14718</v>
+        <v>90891.58182000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13284.103</v>
+        <v>67093.05401999998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31525.75263</v>
+        <v>393416.27836</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8189.96695</v>
+        <v>557536.22771</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>84837.50187000001</v>
+        <v>144974.49436</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46681.03064</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>126161.1526</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>144438.1</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1555.85723</v>
+        <v>3513.55279</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2347.95593</v>
+        <v>5441.43371</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1408.1883</v>
+        <v>4448.81091</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1298.7977</v>
+        <v>3721.07506</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1546.01098</v>
+        <v>6385.28844</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1150.87364</v>
+        <v>4895.1204</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1144.783</v>
+        <v>10168.82354</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1932.27068</v>
+        <v>18426.3939</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1382.05595</v>
+        <v>13606.51228</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6810.38071</v>
+        <v>15116.43958</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6984.0206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>21986.59935</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>36494.007</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>776.6895400000001</v>
+        <v>2239.47607</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>433.5888999999999</v>
+        <v>652.7940299999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>464.22514</v>
+        <v>2356.99859</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>965.7291199999999</v>
+        <v>2248.85523</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1600.69662</v>
+        <v>2411.3784</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1433.67863</v>
+        <v>3136.4306</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>672.3273200000001</v>
+        <v>8511.79192</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>940.74595</v>
+        <v>3892.61293</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>769.46233</v>
+        <v>2347.12009</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1669.99298</v>
+        <v>9321.04286</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>14040.87229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>28554.26498</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10932.143</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6352.3373</v>
+        <v>18608.48524</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4940.36002</v>
+        <v>20960.16404</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>24778.67868</v>
+        <v>62773.17639</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28911.59243</v>
+        <v>55225.04840000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10325.82875</v>
+        <v>20572.92984</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>34280.59491</v>
+        <v>82860.03082000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11466.99268</v>
+        <v>48412.43856</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>28652.736</v>
+        <v>371097.27153</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6038.448670000001</v>
+        <v>541582.5953400001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>76357.12818000001</v>
+        <v>120537.01192</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>25656.13775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>75620.28827</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>97011.95</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-8867.40344</v>
+        <v>-74851.82961</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-77747.47974</v>
+        <v>-141403.75422</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-49526.86872999999</v>
+        <v>54347.32570000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-69720.71904000001</v>
+        <v>86726.23149999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-32834.18812</v>
+        <v>-1985873.99365</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-87111.07941999999</v>
+        <v>-110830.64414</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-38939.03651</v>
+        <v>-538746.05779</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-58816.72708999999</v>
+        <v>-2992911.74345</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-38105.56776</v>
+        <v>-1889275.7207</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-165947.85296</v>
+        <v>-5576605.678180001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-105696.65765</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1734696.64078</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-4749943.702</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>3033.6743</v>
+        <v>4035.49688</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3272.89476</v>
+        <v>4857.801280000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4021.86494</v>
+        <v>9382.251689999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2624.259069999999</v>
+        <v>10866.80103</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3325.42846</v>
+        <v>9193.844359999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3310.28823</v>
+        <v>11664.27428</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3180.38866</v>
+        <v>18162.50445</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3092.05336</v>
+        <v>19121.63021</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2643.83542</v>
+        <v>12074.86877</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10119.88361</v>
+        <v>31623.85849</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11007.78096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>34327.74872</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>33891.913</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-11901.07774</v>
+        <v>-78887.32648999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-81020.37449999999</v>
+        <v>-146261.5555</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-53548.73367</v>
+        <v>44965.07401</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-72344.97811</v>
+        <v>75859.43047000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-36159.61658</v>
+        <v>-1995067.83801</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-90421.36764999999</v>
+        <v>-122494.91842</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-42119.42517</v>
+        <v>-556908.5622399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-61908.78045000001</v>
+        <v>-3012033.37366</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-40749.40318</v>
+        <v>-1901350.58947</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-176067.73657</v>
+        <v>-5608229.536669999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-116704.43861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1769024.3895</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-4783835.615</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2312</v>
+        <v>2585</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2426</v>
+        <v>2734</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2508</v>
+        <v>2874</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2466</v>
+        <v>2903</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2566</v>
+        <v>3109</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2551</v>
+        <v>3220</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2395</v>
+        <v>3135</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2469</v>
+        <v>3314</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2507</v>
+        <v>3376</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3250</v>
+        <v>3902</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4162</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>